--- a/biology/Zoologie/Canidia_chemsaki/Canidia_chemsaki.xlsx
+++ b/biology/Zoologie/Canidia_chemsaki/Canidia_chemsaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canidia chemsaki est une espèce de capricornes de la sous-famille des Lamiinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Canidia chemsaki a été décrite en 2005 par James Earl Wappes (d) et Steven Wayne Lingafelter (d)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Canidia chemsaki a été décrite en 2005 par James Earl Wappes (d) et Steven Wayne Lingafelter (d).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canidia chemsaki se rencontre au Mexique[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canidia chemsaki se rencontre au Mexique.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canidia chemsaki mesure, pour les femelles, de 11,0 à 14,2 mm de long pour 3,8 à 4,5 mm de large et, pour les mâles, de 10,5 à 11,2 mm de long pour 3,2 à 3,5 mm de large[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canidia chemsaki mesure, pour les femelles, de 11,0 à 14,2 mm de long pour 3,8 à 4,5 mm de large et, pour les mâles, de 10,5 à 11,2 mm de long pour 3,2 à 3,5 mm de large.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom spécifique, chemsaki, lui a été donné en l'honneur de John Andrew Chemsak (d) (1932-2007), entomologiste américain, et ce en reconnaissance de sa contribution à la systématique des capricornes et pour ses encouragements enthousiastes à tous ceux désirant contribuer à la science[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom spécifique, chemsaki, lui a été donné en l'honneur de John Andrew Chemsak (d) (1932-2007), entomologiste américain, et ce en reconnaissance de sa contribution à la systématique des capricornes et pour ses encouragements enthousiastes à tous ceux désirant contribuer à la science.
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) James E. Wappes et Steven W. Lingafelter, « The genus Canidia Thomson, 1857 (Coleoptera: Cerambycidae, Lamiinae, Acanthocinini) », Zootaxa, Magnolia Press (d), vol. 927, no 1,‎ 30 mars 2005, p. 1–27 (ISSN 1175-5334 et 1175-5326, OCLC 49030618, DOI 10.11646/ZOOTAXA.927.1.1, lire en ligne)</t>
         </is>
